--- a/code/import/wamsi_theme5/Conversions_mh.xlsx
+++ b/code/import/wamsi_theme5/Conversions_mh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\code\import\wamsi_theme5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0911166-3EC4-40AA-BD46-B92F3C2E105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1279AEAE-F5D0-4213-B99B-514D970E790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2300" windowWidth="28800" windowHeight="15540" xr2:uid="{A1C4C332-E866-42E7-A9A2-C419EF1166C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1C4C332-E866-42E7-A9A2-C419EF1166C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
     <t>Old Name</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>AIR_TEMP</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
@@ -721,18 +724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53E2E82-B254-4205-B47B-C42D49A4A14F}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -760,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -774,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -788,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -802,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -817,7 +820,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -828,7 +831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -842,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -856,7 +859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -870,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -889,7 +892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -908,7 +911,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -927,7 +930,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -946,7 +949,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -965,7 +968,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -984,7 +987,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -1358,13 +1361,13 @@
         <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
@@ -1372,13 +1375,13 @@
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
